--- a/exports/marketing_roi.xlsx
+++ b/exports/marketing_roi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misnm\omnicart-analytics\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{532A537F-5844-4C12-AA28-86EE4A022ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B53B5-3D5C-468C-8CCE-7083110D80C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{55E57841-9743-40CE-A603-21E8D5F36C64}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="11" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -688,7 +688,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1403,26 +1403,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1436,15 +1429,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="21" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="21" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1490,165 +1488,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="38">
     <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1681,39 +1523,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1916,7 +1726,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1973,24 +1783,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Sum of roi</a:t>
             </a:r>
           </a:p>
@@ -2009,16 +1820,21 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2041,8 +1857,8 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="6"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="dk1">
@@ -2055,7 +1871,6 @@
                   <a:tint val="88500"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2070,16 +1885,22 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -2157,16 +1978,22 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:ln w="0"/>
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
@@ -2188,13 +2015,14 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525">
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
+                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -2264,7 +2092,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="79"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="1844076207"/>
         <c:axId val="1844093967"/>
@@ -2276,20 +2104,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2312,16 +2126,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2339,12 +2158,58 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1844076207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2372,13 +2237,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2401,7 +2271,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2419,7 +2289,19 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0" cap="none" spc="0">
+          <a:ln w="0"/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="dk1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2476,7 +2358,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2487,7 +2369,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2510,18 +2392,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2533,16 +2415,19 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2574,45 +2459,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2624,34 +2499,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2673,13 +2544,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2689,7 +2562,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2698,13 +2571,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2713,16 +2587,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2731,10 +2606,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -2750,15 +2625,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2777,16 +2658,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2795,16 +2677,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2813,16 +2696,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2843,7 +2727,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2851,7 +2735,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2864,17 +2748,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2882,10 +2755,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2906,7 +2779,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2915,14 +2788,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2936,26 +2809,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2969,17 +2843,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2987,8 +2850,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4213,7 +4082,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37C3D54A-15F4-4F6B-B7DF-6E13FAD697B3}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Channel">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37C3D54A-15F4-4F6B-B7DF-6E13FAD697B3}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Channel">
   <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4269,32 +4138,32 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of roi" fld="6" baseField="0" baseItem="0" numFmtId="170"/>
+    <dataField name="Sum of roi" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="32">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="4">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4322,7 +4191,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86AA959F-D4CF-4869-88C9-BD15E770742D}" name="roi_pivot2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="campaign_name">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86AA959F-D4CF-4869-88C9-BD15E770742D}" name="roi_pivot2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="campaign_name">
   <location ref="I3:L6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4480,16 +4349,16 @@
     <dataField name="Sum of roi" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="50">
+    <format dxfId="25">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="23">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="10">
@@ -4507,7 +4376,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4518,7 +4387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -4527,7 +4396,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -4536,7 +4405,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -4545,7 +4414,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -4554,10 +4423,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="16">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4568,10 +4437,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="14">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4582,16 +4451,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="3">
@@ -4602,7 +4471,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4613,7 +4482,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4639,7 +4508,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F4E1FA4-FC28-4AC8-A9B5-1A033DE5BB3C}" name="marketing_roi" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Channel">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F4E1FA4-FC28-4AC8-A9B5-1A033DE5BB3C}" name="marketing_roi" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Channel">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4815,7 +4684,7 @@
     <dataField name="Sum of roi" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="61">
+    <format dxfId="36">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4825,29 +4694,29 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="34">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="32">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -4858,7 +4727,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -4867,7 +4736,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -4876,7 +4745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="26">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -4893,7 +4762,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AE0EB44-BDD8-4F70-BF65-E9EC6A74D062}" name="marketing_roi" displayName="marketing_roi" ref="A4:G104" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AE0EB44-BDD8-4F70-BF65-E9EC6A74D062}" name="marketing_roi" displayName="marketing_roi" ref="A4:G104" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A4:G104" xr:uid="{9AE0EB44-BDD8-4F70-BF65-E9EC6A74D062}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{310811B1-24B6-463B-B386-DE06B7E086F9}" name="campaign_id"/>
@@ -5243,68 +5112,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>1182.3499999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2051006.8568</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>2049824.51</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>1734.69</v>
       </c>
     </row>
@@ -7620,198 +7489,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>144795.63</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>30572388.040800001</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>7279.2999999999993</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>3996.2999999999997</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>1182.3499999999999</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="16">
         <v>2051006.8568</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="17">
         <v>1734.69</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>167406.46</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>40929435.629699998</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>6886.1699999999992</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>4638.53</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <v>1272.29</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="5">
         <v>1744541.3470000001</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="19">
         <v>1371.18</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>136266.37</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>24853329.783000007</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>5213.2800000000007</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>5213.2800000000007</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="20">
         <v>1231.32</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="21">
         <v>1625675.6444999999</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="22">
         <v>1320.27</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>174731.08</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>29905233.915699996</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>4638.53</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>6886.1699999999992</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>181101.87999999998</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>27969981.810700003</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>3996.2999999999997</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>7279.2999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>804301.41999999993</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>154230369.17989999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>28013.58</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>28013.579999999994</v>
       </c>
     </row>
